--- a/files/Dashboards_online.xlsx
+++ b/files/Dashboards_online.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerners/Desktop/Git/oa-datenpraxis.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24F983-CFCA-4D0D-842E-8781FF1EBDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA99D1-3251-514C-913E-89DAD0A91E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
   <si>
     <t>NAME</t>
   </si>
@@ -459,9 +457,6 @@
   </si>
   <si>
     <t>OpenAIRE MONITOR, OpenAIRE</t>
-  </si>
-  <si>
-    <t>https://catalogue.openaire.eu/service/openaire.monitor/overview</t>
   </si>
   <si>
     <t>LMU Open Science Center, Ludwig-Maximilians-Universität München</t>
@@ -707,7 +702,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -715,14 +710,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,9 +745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -793,7 +785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -899,7 +891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1041,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,28 +1041,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.796875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11.19921875" style="2"/>
-    <col min="9" max="9" width="19" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.296875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="11.19921875" style="2"/>
+    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="11.1640625" style="2"/>
+    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>102</v>
@@ -1099,19 +1091,19 @@
         <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="2">
@@ -1120,11 +1112,11 @@
       <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>46</v>
@@ -1132,17 +1124,17 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1150,12 +1142,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1167,17 +1159,17 @@
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,12 +1177,12 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1202,30 +1194,30 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1237,30 +1229,30 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1272,31 +1264,31 @@
       <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>175</v>
+      <c r="I6" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1308,32 +1300,32 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>190</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>61</v>
@@ -1344,22 +1336,22 @@
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>95</v>
@@ -1373,11 +1365,11 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1385,13 +1377,13 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>46</v>
@@ -1399,22 +1391,22 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>97</v>
@@ -1428,11 +1420,11 @@
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -1440,12 +1432,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1457,14 +1449,14 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>173</v>
+      <c r="I12" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1472,12 +1464,12 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1489,17 +1481,17 @@
       <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -1507,12 +1499,12 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1524,17 +1516,17 @@
       <c r="H14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1542,12 +1534,12 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1559,11 +1551,11 @@
       <c r="H15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
         <v>120</v>
@@ -1588,19 +1580,19 @@
       <c r="H16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>122</v>
@@ -1617,26 +1609,26 @@
       <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>133</v>
@@ -1650,14 +1642,14 @@
       <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1665,12 +1657,12 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1683,18 +1675,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>134</v>
@@ -1708,19 +1700,19 @@
       <c r="H20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
@@ -1737,25 +1729,25 @@
       <c r="H21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>171</v>
+      <c r="E22" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>95</v>
@@ -1766,22 +1758,22 @@
       <c r="H22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>127</v>
@@ -1798,19 +1790,19 @@
       <c r="H23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>129</v>
@@ -1827,30 +1819,30 @@
       <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1862,15 +1854,15 @@
       <c r="H25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>78</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -1878,12 +1870,12 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1895,14 +1887,14 @@
       <c r="H26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -1910,12 +1902,12 @@
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>136</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1927,27 +1919,27 @@
       <c r="H27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1959,11 +1951,11 @@
       <c r="H28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1971,12 +1963,12 @@
         <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>137</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1988,14 +1980,14 @@
       <c r="H29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -2003,12 +1995,12 @@
         <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2020,14 +2012,14 @@
       <c r="H30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -2035,13 +2027,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>60</v>
@@ -2052,14 +2044,14 @@
       <c r="H31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -2067,13 +2059,13 @@
         <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>60</v>
@@ -2084,18 +2076,18 @@
       <c r="H32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2116,14 +2108,14 @@
       <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
@@ -2136,8 +2128,8 @@
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>145</v>
+      <c r="E34" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>40</v>
@@ -2148,59 +2140,54 @@
       <c r="H34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B39" s="3"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2256,51 +2243,10 @@
     <hyperlink ref="E19" r:id="rId50" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
     <hyperlink ref="E22" r:id="rId51" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
     <hyperlink ref="E8" r:id="rId52" xr:uid="{AA26F3F5-37F5-4224-8CD6-D258C4FAA10D}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{EBA76C46-D226-4BE8-95B6-FC4341ACE19F}"/>
-    <hyperlink ref="E32" r:id="rId54" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
+    <hyperlink ref="E32" r:id="rId53" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId55"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId54"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
